--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
   <si>
     <t>#</t>
   </si>
@@ -49,9 +49,24 @@
     <t>伤害</t>
   </si>
   <si>
+    <t>攻击速度</t>
+  </si>
+  <si>
+    <t>攻击范围</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
     <t>预设物名</t>
   </si>
   <si>
+    <t>掉落经验</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -70,7 +85,22 @@
     <t>Dmg</t>
   </si>
   <si>
+    <t>ATKSpeed</t>
+  </si>
+  <si>
+    <t>ATKRage</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Lv</t>
+  </si>
+  <si>
     <t>PrefabName</t>
+  </si>
+  <si>
+    <t>Drop</t>
   </si>
   <si>
     <t>int</t>
@@ -766,7 +796,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -778,12 +808,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1133,10 +1157,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:M18"/>
+  <dimension ref="C2:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1148,19 +1172,19 @@
     <col min="6" max="6" width="9.62727272727273" style="2" customWidth="1"/>
     <col min="7" max="7" width="28.7545454545455" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="12" width="12" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="9" max="16" width="12" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:12">
+    <row r="2" spans="5:16">
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="13.5" spans="3:12">
+    <row r="3" ht="13.5" spans="3:17">
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1191,8 +1215,23 @@
       <c r="L3" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="M3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" ht="13.5" spans="3:12">
+    <row r="4" ht="13.5" spans="3:17">
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1201,58 +1240,88 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="3:12">
+    <row r="5" ht="13.5" spans="3:17">
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:12">
+    <row r="6" s="1" customFormat="1" spans="3:17">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -1260,13 +1329,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -1280,11 +1349,26 @@
       <c r="K6" s="1">
         <v>0</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>24</v>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:12">
+    <row r="7" spans="3:17">
       <c r="C7" s="5">
         <v>1002</v>
       </c>
@@ -1292,31 +1376,46 @@
         <v>2</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="6">
+        <v>37</v>
+      </c>
+      <c r="H7" s="5">
         <v>40</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>5</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="5">
         <v>5</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="5">
         <v>5</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>28</v>
+      <c r="L7" s="5">
+        <v>20000</v>
+      </c>
+      <c r="M7" s="5">
+        <v>6000</v>
+      </c>
+      <c r="N7" s="5">
+        <v>5000</v>
+      </c>
+      <c r="O7" s="5">
+        <v>1</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:12">
+    <row r="8" spans="3:17">
       <c r="C8" s="5">
         <v>1003</v>
       </c>
@@ -1324,31 +1423,46 @@
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="6">
+        <v>37</v>
+      </c>
+      <c r="H8" s="5">
         <v>80</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>10</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="5">
         <v>10</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="5">
         <v>10</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>28</v>
+      <c r="L8" s="5">
+        <v>19000</v>
+      </c>
+      <c r="M8" s="5">
+        <v>6500</v>
+      </c>
+      <c r="N8" s="5">
+        <v>5300</v>
+      </c>
+      <c r="O8" s="5">
+        <v>2</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="3:17">
       <c r="C9" s="5">
         <v>1004</v>
       </c>
@@ -1356,31 +1470,46 @@
         <v>2</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="5">
+        <v>120</v>
+      </c>
+      <c r="I9" s="5">
+        <v>15</v>
+      </c>
+      <c r="J9" s="5">
+        <v>15</v>
+      </c>
+      <c r="K9" s="5">
+        <v>15</v>
+      </c>
+      <c r="L9" s="5">
+        <v>18000</v>
+      </c>
+      <c r="M9" s="5">
+        <v>7000</v>
+      </c>
+      <c r="N9" s="5">
+        <v>5600</v>
+      </c>
+      <c r="O9" s="1">
+        <v>3</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="5">
         <v>30</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="6">
-        <v>120</v>
-      </c>
-      <c r="I9" s="6">
-        <v>15</v>
-      </c>
-      <c r="J9" s="2">
-        <v>15</v>
-      </c>
-      <c r="K9" s="2">
-        <v>15</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="10" spans="3:12">
+    <row r="10" spans="3:17">
       <c r="C10" s="5">
         <v>1005</v>
       </c>
@@ -1388,31 +1517,46 @@
         <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="6">
+        <v>37</v>
+      </c>
+      <c r="H10" s="5">
         <v>160</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>20</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="5">
         <v>20</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="5">
         <v>20</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>28</v>
+      <c r="L10" s="5">
+        <v>17000</v>
+      </c>
+      <c r="M10" s="5">
+        <v>7500</v>
+      </c>
+      <c r="N10" s="5">
+        <v>5900</v>
+      </c>
+      <c r="O10" s="5">
+        <v>4</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>40</v>
       </c>
     </row>
-    <row r="11" spans="3:12">
+    <row r="11" spans="3:17">
       <c r="C11" s="5">
         <v>1006</v>
       </c>
@@ -1420,31 +1564,46 @@
         <v>2</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="5">
+        <v>200</v>
+      </c>
+      <c r="I11" s="5">
         <v>25</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="6">
-        <v>200</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="J11" s="5">
         <v>25</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="5">
         <v>25</v>
       </c>
-      <c r="K11" s="2">
-        <v>25</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>28</v>
+      <c r="L11" s="5">
+        <v>16000</v>
+      </c>
+      <c r="M11" s="5">
+        <v>8000</v>
+      </c>
+      <c r="N11" s="5">
+        <v>6200</v>
+      </c>
+      <c r="O11" s="5">
+        <v>5</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>50</v>
       </c>
     </row>
-    <row r="12" spans="3:12">
+    <row r="12" spans="3:17">
       <c r="C12" s="5">
         <v>1007</v>
       </c>
@@ -1452,31 +1611,46 @@
         <v>2</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="6">
+        <v>37</v>
+      </c>
+      <c r="H12" s="5">
         <v>240</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>30</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="5">
         <v>30</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="5">
         <v>30</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>28</v>
+      <c r="L12" s="5">
+        <v>15000</v>
+      </c>
+      <c r="M12" s="5">
+        <v>8500</v>
+      </c>
+      <c r="N12" s="5">
+        <v>6500</v>
+      </c>
+      <c r="O12" s="1">
+        <v>6</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>60</v>
       </c>
     </row>
-    <row r="13" spans="3:13">
+    <row r="13" spans="3:17">
       <c r="C13" s="5">
         <v>1008</v>
       </c>
@@ -1484,32 +1658,46 @@
         <v>2</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="6">
+        <v>37</v>
+      </c>
+      <c r="H13" s="5">
         <v>280</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>35</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="5">
         <v>35</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="5">
         <v>35</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="7"/>
+      <c r="L13" s="5">
+        <v>14000</v>
+      </c>
+      <c r="M13" s="5">
+        <v>9000</v>
+      </c>
+      <c r="N13" s="5">
+        <v>6800</v>
+      </c>
+      <c r="O13" s="5">
+        <v>7</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>70</v>
+      </c>
     </row>
-    <row r="14" spans="3:12">
+    <row r="14" spans="3:17">
       <c r="C14" s="5">
         <v>1009</v>
       </c>
@@ -1517,31 +1705,46 @@
         <v>2</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="6">
+        <v>37</v>
+      </c>
+      <c r="H14" s="5">
         <v>320</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>40</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="5">
         <v>40</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="5">
         <v>40</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>28</v>
+      <c r="L14" s="5">
+        <v>13000</v>
+      </c>
+      <c r="M14" s="5">
+        <v>9500</v>
+      </c>
+      <c r="N14" s="5">
+        <v>7100</v>
+      </c>
+      <c r="O14" s="5">
+        <v>8</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>80</v>
       </c>
     </row>
-    <row r="15" spans="3:12">
+    <row r="15" spans="3:17">
       <c r="C15" s="5">
         <v>1010</v>
       </c>
@@ -1549,31 +1752,46 @@
         <v>2</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="6">
+        <v>37</v>
+      </c>
+      <c r="H15" s="5">
         <v>360</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <v>45</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="5">
         <v>45</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="5">
         <v>45</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>28</v>
+      <c r="L15" s="5">
+        <v>12000</v>
+      </c>
+      <c r="M15" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N15" s="5">
+        <v>7400</v>
+      </c>
+      <c r="O15" s="1">
+        <v>9</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>90</v>
       </c>
     </row>
-    <row r="16" spans="3:12">
+    <row r="16" spans="3:17">
       <c r="C16" s="5">
         <v>1011</v>
       </c>
@@ -1581,31 +1799,46 @@
         <v>2</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>400</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>50</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="5">
         <v>50</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="5">
         <v>50</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>28</v>
+      <c r="L16" s="5">
+        <v>11000</v>
+      </c>
+      <c r="M16" s="5">
+        <v>10500</v>
+      </c>
+      <c r="N16" s="5">
+        <v>7700</v>
+      </c>
+      <c r="O16" s="5">
+        <v>10</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>100</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:17">
       <c r="C17" s="5">
         <v>1012</v>
       </c>
@@ -1613,31 +1846,46 @@
         <v>2</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="5">
+        <v>440</v>
+      </c>
+      <c r="I17" s="5">
+        <v>55</v>
+      </c>
+      <c r="J17" s="5">
+        <v>55</v>
+      </c>
+      <c r="K17" s="5">
+        <v>55</v>
+      </c>
+      <c r="L17" s="5">
+        <v>10000</v>
+      </c>
+      <c r="M17" s="5">
+        <v>11000</v>
+      </c>
+      <c r="N17" s="5">
+        <v>8000</v>
+      </c>
+      <c r="O17" s="5">
+        <v>11</v>
+      </c>
+      <c r="P17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="6">
-        <v>440</v>
-      </c>
-      <c r="I17" s="6">
-        <v>55</v>
-      </c>
-      <c r="J17" s="2">
-        <v>55</v>
-      </c>
-      <c r="K17" s="2">
-        <v>55</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>28</v>
+      <c r="Q17" s="5">
+        <v>110</v>
       </c>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:17">
       <c r="C18" s="5">
         <v>1013</v>
       </c>
@@ -1645,28 +1893,43 @@
         <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="6">
+        <v>37</v>
+      </c>
+      <c r="H18" s="5">
         <v>480</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>60</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="5">
         <v>60</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="5">
         <v>60</v>
       </c>
-      <c r="L18" s="5" t="s">
-        <v>28</v>
+      <c r="L18" s="5">
+        <v>9000</v>
+      </c>
+      <c r="M18" s="5">
+        <v>11500</v>
+      </c>
+      <c r="N18" s="5">
+        <v>8300</v>
+      </c>
+      <c r="O18" s="1">
+        <v>12</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
